--- a/car_dealership/car_dealership.xlsx
+++ b/car_dealership/car_dealership.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,120 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Maserati</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MODENA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Sedan</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>123.1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/car_dealership/car_dealership.xlsx
+++ b/car_dealership/car_dealership.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,63 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lexus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>132.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>SUV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Electric</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/car_dealership/car_dealership.xlsx
+++ b/car_dealership/car_dealership.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\fco_hdzt\programming\python_lectures_csr\car_dealership\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A28918-EA67-4DB1-B721-4D6BF487B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58DD33-B732-46CC-9D32-4FEC9D001AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16725" windowHeight="9450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" r:id="rId1"/>
     <sheet name="Clients" sheetId="2" r:id="rId2"/>
     <sheet name="Salesmen" sheetId="3" r:id="rId3"/>
+    <sheet name="Sales" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -988,13 +989,37 @@
   </si>
   <si>
     <t>12/11/1995</t>
+  </si>
+  <si>
+    <t>Riey</t>
+  </si>
+  <si>
+    <t>08/08/1999</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1040,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1055,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1067,12 +1100,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,7 +1413,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1457,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2619,19 +2654,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="8" max="8" width="15.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2653,13 +2689,13 @@
       <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2000</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>53</v>
@@ -2679,12 +2715,12 @@
       <c r="G2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2001</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2705,12 +2741,12 @@
       <c r="G3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>2002</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2731,12 +2767,12 @@
       <c r="G4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>2003</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2757,12 +2793,12 @@
       <c r="G5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2004</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2783,12 +2819,12 @@
       <c r="G6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>2005</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2809,12 +2845,12 @@
       <c r="G7" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2006</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2835,12 +2871,13 @@
       <c r="G8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>2007</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2861,12 +2898,12 @@
       <c r="G9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>2008</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2887,12 +2924,12 @@
       <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>2009</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2913,12 +2950,12 @@
       <c r="G11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>2010</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2939,13 +2976,12 @@
       <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>2011</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2966,12 +3002,12 @@
       <c r="G13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>2012</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2992,12 +3028,12 @@
       <c r="G14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2013</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3018,12 +3054,12 @@
       <c r="G15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3044,12 +3080,12 @@
       <c r="G16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="3" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>2015</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3070,12 +3106,12 @@
       <c r="G17" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="3" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>2016</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3096,12 +3132,12 @@
       <c r="G18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="3" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3122,12 +3158,12 @@
       <c r="G19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="3" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3148,12 +3184,12 @@
       <c r="G20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="3" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>2019</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3174,12 +3210,12 @@
       <c r="G21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="3" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>2020</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3200,12 +3236,12 @@
       <c r="G22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="3" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>2021</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3226,12 +3262,12 @@
       <c r="G23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="3" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>2022</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3252,12 +3288,12 @@
       <c r="G24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>2023</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3278,12 +3314,12 @@
       <c r="G25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="3" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>2024</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3304,12 +3340,12 @@
       <c r="G26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="3" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>2025</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3330,12 +3366,12 @@
       <c r="G27" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="3" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>2026</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3356,12 +3392,12 @@
       <c r="G28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="3" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>2027</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3382,12 +3418,12 @@
       <c r="G29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="3" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>2028</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3408,12 +3444,12 @@
       <c r="G30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="3" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>2029</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3434,12 +3470,12 @@
       <c r="G31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="3" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>2030</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3460,12 +3496,178 @@
       <c r="G32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="3" t="s">
         <v>317</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>2031</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5578905432</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>2032</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5589016543</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>2033</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5590127654</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>2034</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5512348765</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>2035</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="3">
+        <v>5523459876</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>2036</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5534560987</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3473,8 +3675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3711,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
@@ -3535,7 +3737,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>4001</v>
       </c>
       <c r="B3" t="s">
@@ -3561,7 +3763,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>4002</v>
       </c>
       <c r="B4" t="s">
@@ -3587,7 +3789,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4003</v>
       </c>
       <c r="B5" t="s">
@@ -3613,7 +3815,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4004</v>
       </c>
       <c r="B6" t="s">
@@ -3639,7 +3841,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4005</v>
       </c>
       <c r="B7" t="s">
@@ -3665,7 +3867,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>4006</v>
       </c>
       <c r="B8" t="s">
@@ -3691,7 +3893,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>4007</v>
       </c>
       <c r="B9" t="s">
@@ -3717,7 +3919,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4008</v>
       </c>
       <c r="B10" t="s">
@@ -3743,7 +3945,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>4009</v>
       </c>
       <c r="B11" t="s">
@@ -3769,7 +3971,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>4010</v>
       </c>
       <c r="B12" t="s">
@@ -3795,7 +3997,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>4011</v>
       </c>
       <c r="B13" t="s">
@@ -3821,7 +4023,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>4012</v>
       </c>
       <c r="B14" t="s">
@@ -3847,7 +4049,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>4013</v>
       </c>
       <c r="B15" t="s">
@@ -3873,7 +4075,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>4014</v>
       </c>
       <c r="B16" t="s">
@@ -3899,7 +4101,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>4015</v>
       </c>
       <c r="B17" t="s">
@@ -3925,7 +4127,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>4016</v>
       </c>
       <c r="B18" t="s">
@@ -3951,7 +4153,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>4017</v>
       </c>
       <c r="B19" t="s">
@@ -3977,7 +4179,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>4018</v>
       </c>
       <c r="B20" t="s">
@@ -4003,7 +4205,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>4019</v>
       </c>
       <c r="B21" t="s">
@@ -4029,7 +4231,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>4020</v>
       </c>
       <c r="B22" t="s">
@@ -4055,7 +4257,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>4021</v>
       </c>
       <c r="B23" t="s">
@@ -4081,7 +4283,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>4022</v>
       </c>
       <c r="B24" t="s">
@@ -4107,7 +4309,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>4023</v>
       </c>
       <c r="B25" t="s">
@@ -4133,7 +4335,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>4024</v>
       </c>
       <c r="B26" t="s">
@@ -4159,7 +4361,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>4025</v>
       </c>
       <c r="B27" t="s">
@@ -4185,7 +4387,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>4026</v>
       </c>
       <c r="B28" t="s">
@@ -4211,7 +4413,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>4027</v>
       </c>
       <c r="B29" t="s">
@@ -4237,7 +4439,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>4028</v>
       </c>
       <c r="B30" t="s">
@@ -4263,7 +4465,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>4029</v>
       </c>
       <c r="B31" t="s">
@@ -4289,7 +4491,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>4030</v>
       </c>
       <c r="B32" t="s">
@@ -4318,4 +4520,62 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103390AA-F5AF-4178-BEBA-DC4D407D681F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4000</v>
+      </c>
+      <c r="B2">
+        <v>2029</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4014</v>
+      </c>
+      <c r="D2" s="10">
+        <v>46045</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/car_dealership/car_dealership.xlsx
+++ b/car_dealership/car_dealership.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\fco_hdzt\programming\python_lectures_csr\car_dealership\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F58DD33-B732-46CC-9D32-4FEC9D001AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7970B2-9881-4377-BDE6-1773E17E5287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16725" windowHeight="9450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16800" windowHeight="9450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" r:id="rId1"/>
     <sheet name="Clients" sheetId="2" r:id="rId2"/>
     <sheet name="Salesmen" sheetId="3" r:id="rId3"/>
     <sheet name="Sales" sheetId="4" r:id="rId4"/>
+    <sheet name="Invoices" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="333">
   <si>
     <t>ID</t>
   </si>
@@ -1013,12 +1014,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1088,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1103,11 +1116,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,7 +1424,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1468,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2654,7 +2665,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
@@ -2667,7 +2678,7 @@
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2693,8 +2704,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2719,8 +2730,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2745,8 +2756,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2002</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2771,8 +2782,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2003</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2797,8 +2808,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2004</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2823,8 +2834,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>2005</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2849,8 +2860,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>2006</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2874,10 +2885,9 @@
       <c r="H8" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2902,8 +2912,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2928,8 +2938,8 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2009</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2954,8 +2964,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2980,8 +2990,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2011</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3006,8 +3016,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2012</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3032,8 +3042,8 @@
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2013</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3058,8 +3068,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2014</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3085,7 +3095,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17">
         <v>2015</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3111,7 +3121,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18">
         <v>2016</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3137,7 +3147,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19">
         <v>2017</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3163,7 +3173,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3189,7 +3199,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3215,7 +3225,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22">
         <v>2020</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3241,7 +3251,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23">
         <v>2021</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3267,7 +3277,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24">
         <v>2022</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3293,7 +3303,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25">
         <v>2023</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3319,7 +3329,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26">
         <v>2024</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3345,7 +3355,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27">
         <v>2025</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3371,7 +3381,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28">
         <v>2026</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3397,7 +3407,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29">
         <v>2027</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -3423,7 +3433,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30">
         <v>2028</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -3449,7 +3459,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31">
         <v>2029</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3475,7 +3485,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32">
         <v>2030</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -3501,7 +3511,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33">
         <v>2031</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -3527,7 +3537,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34">
         <v>2032</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3553,7 +3563,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35">
         <v>2033</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3579,7 +3589,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36">
         <v>2034</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3605,7 +3615,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37">
         <v>2035</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3631,7 +3641,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38">
         <v>2036</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3657,10 +3667,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4524,22 +4534,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103390AA-F5AF-4178-BEBA-DC4D407D681F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2476E2-B996-44E0-8007-4E5BF6CBB965}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="5" t="s">
         <v>324</v>
       </c>
@@ -4550,32 +4595,19 @@
         <v>326</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4000</v>
-      </c>
-      <c r="B2">
-        <v>2029</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4014</v>
-      </c>
-      <c r="D2" s="10">
-        <v>46045</v>
-      </c>
-      <c r="E2" s="7"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>